--- a/UseCaseIScenarij/SastavljanjeSpiskaNamirnica.xlsx
+++ b/UseCaseIScenarij/SastavljanjeSpiskaNamirnica.xlsx
@@ -97,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,13 +105,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,7 +435,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A2" sqref="A2:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,25 +454,31 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -464,56 +486,88 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UseCaseIScenarij/SastavljanjeSpiskaNamirnica.xlsx
+++ b/UseCaseIScenarij/SastavljanjeSpiskaNamirnica.xlsx
@@ -22,9 +22,6 @@
     <t>Mušterija</t>
   </si>
   <si>
-    <t>Baza podataka</t>
-  </si>
-  <si>
     <t>1. Odabir proizvoda</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ostali koraci isti kao kod trećeg. </t>
+  </si>
+  <si>
+    <t>Analiza sadržaja</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,7 +452,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -462,15 +462,15 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -479,19 +479,19 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -500,7 +500,7 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,14 +510,14 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -526,20 +526,20 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -550,21 +550,21 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
